--- a/REGULAR/EMELO MARY JANE.xlsx
+++ b/REGULAR/EMELO MARY JANE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1365,12 +1368,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1536,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>70.635000000000005</v>
+        <v>71.885000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1543,7 +1546,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69.25</v>
+        <v>69.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3462,7 +3465,9 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -3471,21 +3476,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="49">
+        <v>44968</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>44986</v>
+      </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -4005,20 +4018,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
